--- a/08-cost-sharing/code/shapley.xlsx
+++ b/08-cost-sharing/code/shapley.xlsx
@@ -5,14 +5,14 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="600" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Shapley Not Modular" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Shapley Modular" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Shapley" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="VCG equal payments" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="VCG" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="VCG with payments" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="Shapley" sheetId="5" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName function="false" hidden="false" name="a" vbProcedure="false">Shapley!$C$2</definedName>
@@ -23,8 +23,8 @@
     <definedName function="false" hidden="false" name="bg" vbProcedure="false">Shapley!$H$2</definedName>
     <definedName function="false" hidden="false" name="g" vbProcedure="false">Shapley!$E$2</definedName>
     <definedName function="false" hidden="false" name="va" vbProcedure="false">VCG!$C$4</definedName>
-    <definedName function="false" hidden="false" name="vb" vbProcedure="false">VCG!$D$5</definedName>
-    <definedName function="false" hidden="false" name="vc" vbProcedure="false">VCG!$E$6</definedName>
+    <definedName function="false" hidden="false" name="vb" vbProcedure="false">VCG!$D$4</definedName>
+    <definedName function="false" hidden="false" name="vc" vbProcedure="false">VCG!$E$4</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="a" vbProcedure="false">'Shapley Not Modular'!$C$2</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="ab" vbProcedure="false">'Shapley Not Modular'!$F$2</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="abg" vbProcedure="false">'Shapley Not Modular'!$I$2</definedName>
@@ -39,9 +39,9 @@
     <definedName function="false" hidden="false" localSheetId="1" name="b" vbProcedure="false">'Shapley Modular'!$D$2</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="bg" vbProcedure="false">'Shapley Modular'!$H$2</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="g" vbProcedure="false">'Shapley Modular'!$E$2</definedName>
-    <definedName function="false" hidden="false" localSheetId="4" name="va" vbProcedure="false">'VCG with payments'!$C$4</definedName>
-    <definedName function="false" hidden="false" localSheetId="4" name="vb" vbProcedure="false">'VCG with payments'!$D$5</definedName>
-    <definedName function="false" hidden="false" localSheetId="4" name="vc" vbProcedure="false">'VCG with payments'!$E$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="va" vbProcedure="false">'VCG equal payments'!$C$4</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="vb" vbProcedure="false">'VCG equal payments'!$D$4</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="vc" vbProcedure="false">'VCG equal payments'!$E$4</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="39">
   <si>
     <r>
       <rPr>
@@ -61,7 +61,6 @@
         <sz val="10"/>
         <rFont val="Nachlieli CLM"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">קבוצה</t>
     </r>
@@ -71,7 +70,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">:</t>
     </r>
@@ -92,7 +90,6 @@
         <sz val="10"/>
         <rFont val="Nachlieli CLM"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">א</t>
     </r>
@@ -102,7 +99,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">,</t>
     </r>
@@ -112,7 +108,6 @@
         <sz val="10"/>
         <rFont val="Nachlieli CLM"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">ב</t>
     </r>
@@ -124,7 +119,6 @@
         <sz val="10"/>
         <rFont val="Nachlieli CLM"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">א</t>
     </r>
@@ -134,7 +128,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">,</t>
     </r>
@@ -144,7 +137,6 @@
         <sz val="10"/>
         <rFont val="Nachlieli CLM"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">ג</t>
     </r>
@@ -156,7 +148,6 @@
         <sz val="10"/>
         <rFont val="Nachlieli CLM"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">ב</t>
     </r>
@@ -166,7 +157,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">,</t>
     </r>
@@ -176,7 +166,6 @@
         <sz val="10"/>
         <rFont val="Nachlieli CLM"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">ג</t>
     </r>
@@ -188,7 +177,6 @@
         <sz val="10"/>
         <rFont val="Nachlieli CLM"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">א</t>
     </r>
@@ -198,7 +186,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">,</t>
     </r>
@@ -208,7 +195,6 @@
         <sz val="10"/>
         <rFont val="Nachlieli CLM"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">ב</t>
     </r>
@@ -218,7 +204,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">,</t>
     </r>
@@ -228,7 +213,6 @@
         <sz val="10"/>
         <rFont val="Nachlieli CLM"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">ג</t>
     </r>
@@ -240,7 +224,6 @@
         <sz val="10"/>
         <rFont val="Nachlieli CLM"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">עלות</t>
     </r>
@@ -250,7 +233,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">:</t>
     </r>
@@ -262,7 +244,6 @@
         <sz val="10"/>
         <rFont val="Nachlieli CLM"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">סדר</t>
     </r>
@@ -272,7 +253,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">:</t>
     </r>
@@ -284,7 +264,6 @@
         <sz val="10"/>
         <rFont val="Nachlieli CLM"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">א</t>
     </r>
@@ -294,7 +273,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">-</t>
     </r>
@@ -304,7 +282,6 @@
         <sz val="10"/>
         <rFont val="Nachlieli CLM"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">ב</t>
     </r>
@@ -314,7 +291,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">-</t>
     </r>
@@ -324,7 +300,6 @@
         <sz val="10"/>
         <rFont val="Nachlieli CLM"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">ג</t>
     </r>
@@ -336,7 +311,6 @@
         <sz val="10"/>
         <rFont val="Nachlieli CLM"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">א</t>
     </r>
@@ -346,7 +320,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">-</t>
     </r>
@@ -356,7 +329,6 @@
         <sz val="10"/>
         <rFont val="Nachlieli CLM"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">ג</t>
     </r>
@@ -366,7 +338,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">-</t>
     </r>
@@ -376,7 +347,6 @@
         <sz val="10"/>
         <rFont val="Nachlieli CLM"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">ב</t>
     </r>
@@ -388,7 +358,6 @@
         <sz val="10"/>
         <rFont val="Nachlieli CLM"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">ב</t>
     </r>
@@ -398,7 +367,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">-</t>
     </r>
@@ -408,7 +376,6 @@
         <sz val="10"/>
         <rFont val="Nachlieli CLM"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">א</t>
     </r>
@@ -418,7 +385,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">-</t>
     </r>
@@ -428,7 +394,6 @@
         <sz val="10"/>
         <rFont val="Nachlieli CLM"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">ג</t>
     </r>
@@ -440,7 +405,6 @@
         <sz val="10"/>
         <rFont val="Nachlieli CLM"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">ב</t>
     </r>
@@ -450,7 +414,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">-</t>
     </r>
@@ -460,7 +423,6 @@
         <sz val="10"/>
         <rFont val="Nachlieli CLM"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">ג</t>
     </r>
@@ -470,7 +432,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">-</t>
     </r>
@@ -480,7 +441,6 @@
         <sz val="10"/>
         <rFont val="Nachlieli CLM"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">א</t>
     </r>
@@ -492,7 +452,6 @@
         <sz val="10"/>
         <rFont val="Nachlieli CLM"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">ג</t>
     </r>
@@ -502,7 +461,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">-</t>
     </r>
@@ -512,7 +470,6 @@
         <sz val="10"/>
         <rFont val="Nachlieli CLM"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">א</t>
     </r>
@@ -522,7 +479,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">-</t>
     </r>
@@ -532,7 +488,6 @@
         <sz val="10"/>
         <rFont val="Nachlieli CLM"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">ב</t>
     </r>
@@ -544,7 +499,6 @@
         <sz val="10"/>
         <rFont val="Nachlieli CLM"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">ג</t>
     </r>
@@ -554,7 +508,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">-</t>
     </r>
@@ -564,7 +517,6 @@
         <sz val="10"/>
         <rFont val="Nachlieli CLM"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">ב</t>
     </r>
@@ -574,7 +526,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">-</t>
     </r>
@@ -584,7 +535,6 @@
         <sz val="10"/>
         <rFont val="Nachlieli CLM"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">א</t>
     </r>
@@ -599,7 +549,6 @@
         <sz val="10"/>
         <rFont val="Nachlieli CLM"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">א</t>
     </r>
@@ -609,7 +558,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">:</t>
     </r>
@@ -621,7 +569,6 @@
         <sz val="10"/>
         <rFont val="Nachlieli CLM"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">ב</t>
     </r>
@@ -631,7 +578,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">:</t>
     </r>
@@ -643,7 +589,6 @@
         <sz val="10"/>
         <rFont val="Nachlieli CLM"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">ג</t>
     </r>
@@ -653,7 +598,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">:</t>
     </r>
@@ -665,7 +609,6 @@
         <sz val="10"/>
         <rFont val="Nachlieli CLM"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">סכום</t>
     </r>
@@ -675,7 +618,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">:</t>
     </r>
@@ -687,7 +629,6 @@
         <sz val="10"/>
         <rFont val="Nachlieli CLM"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">עלות בלי ג</t>
     </r>
@@ -697,7 +638,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">:</t>
     </r>
@@ -709,9 +649,8 @@
         <sz val="10"/>
         <rFont val="Nachlieli CLM"/>
         <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">ערך נוסע א</t>
+      </rPr>
+      <t xml:space="preserve">עלות בלי ב</t>
     </r>
     <r>
       <rPr>
@@ -719,7 +658,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">:</t>
     </r>
@@ -731,9 +669,8 @@
         <sz val="10"/>
         <rFont val="Nachlieli CLM"/>
         <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">ערך נוסע ב</t>
+      </rPr>
+      <t xml:space="preserve">עלות בלי א</t>
     </r>
     <r>
       <rPr>
@@ -741,7 +678,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">:</t>
     </r>
@@ -753,9 +689,8 @@
         <sz val="10"/>
         <rFont val="Nachlieli CLM"/>
         <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">ערך נוסע ג</t>
+      </rPr>
+      <t xml:space="preserve">תועלת מהנסיעה</t>
     </r>
     <r>
       <rPr>
@@ -763,7 +698,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">:</t>
     </r>
@@ -775,9 +709,8 @@
         <sz val="10"/>
         <rFont val="Nachlieli CLM"/>
         <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">ערך </t>
+      </rPr>
+      <t xml:space="preserve">ערך נוסע א</t>
     </r>
     <r>
       <rPr>
@@ -785,29 +718,8 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">"</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <rFont val="Nachlieli CLM"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">נהג</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">":</t>
+      </rPr>
+      <t xml:space="preserve">:</t>
     </r>
   </si>
   <si>
@@ -817,9 +729,8 @@
         <sz val="10"/>
         <rFont val="Nachlieli CLM"/>
         <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">נבחר</t>
+      </rPr>
+      <t xml:space="preserve">ערך נוסע ב</t>
     </r>
     <r>
       <rPr>
@@ -827,7 +738,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">:</t>
     </r>
@@ -839,9 +749,8 @@
         <sz val="10"/>
         <rFont val="Nachlieli CLM"/>
         <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">סכום בלי א</t>
+      </rPr>
+      <t xml:space="preserve">ערך נוסע ג</t>
     </r>
     <r>
       <rPr>
@@ -849,7 +758,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">:</t>
     </r>
@@ -861,9 +769,8 @@
         <sz val="10"/>
         <rFont val="Nachlieli CLM"/>
         <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">סכום בלי ב</t>
+      </rPr>
+      <t xml:space="preserve">ערך </t>
     </r>
     <r>
       <rPr>
@@ -871,9 +778,26 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">:</t>
+      </rPr>
+      <t xml:space="preserve">"</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Nachlieli CLM"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">נהג</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">":</t>
     </r>
   </si>
   <si>
@@ -883,7 +807,66 @@
         <sz val="10"/>
         <rFont val="Nachlieli CLM"/>
         <family val="2"/>
-        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">נבחר</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Nachlieli CLM"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">סכום בלי א</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Nachlieli CLM"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">סכום בלי ב</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Nachlieli CLM"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">סכום בלי ג</t>
     </r>
@@ -893,7 +876,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">:</t>
     </r>
@@ -908,13 +890,15 @@
     <t xml:space="preserve">תועלת</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <rFont val="Nachlieli CLM"/>
-        <family val="2"/>
-        <charset val="1"/>
+    <t xml:space="preserve"> →לא מעודד השתתפות</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Nachlieli CLM"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">נהג</t>
     </r>
@@ -924,96 +908,29 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">:</t>
     </r>
   </si>
   <si>
     <t xml:space="preserve"> →גירעון</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <rFont val="Nachlieli CLM"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">תשלום נוסע א</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">:</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <rFont val="Nachlieli CLM"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">תשלום נוסע ב</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">:</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <rFont val="Nachlieli CLM"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">תשלום נוסע ג</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">:</t>
-    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00;[RED]\-[$$-409]#,##0.00"/>
-    <numFmt numFmtId="166" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
+    <numFmt numFmtId="166" formatCode="General"/>
+    <numFmt numFmtId="167" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1031,34 +948,36 @@
       <family val="0"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Nachlieli CLM"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <u val="single"/>
       <sz val="10"/>
       <name val="Nachlieli CLM"/>
       <family val="2"/>
-      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Nachlieli CLM"/>
+      <family val="2"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="10"/>
       <name val="Nachlieli CLM"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
+    </font>
+    <font>
+      <i val="true"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1087,6 +1006,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF33FF99"/>
         <bgColor rgb="FF00FFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF9900"/>
+        <bgColor rgb="FFFFCC00"/>
       </patternFill>
     </fill>
     <fill>
@@ -1141,20 +1066,16 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="90" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="35">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1191,11 +1112,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1203,7 +1128,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false" readingOrder="2"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false" readingOrder="2"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1211,7 +1144,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false" readingOrder="2"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1219,47 +1152,59 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false" readingOrder="2"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false" readingOrder="2"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false" readingOrder="2"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false" readingOrder="2"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false" readingOrder="2"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false" readingOrder="2"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false" readingOrder="2"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false" readingOrder="2"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false" readingOrder="2"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1271,14 +1216,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false" readingOrder="2"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false" readingOrder="2"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
   </cellXfs>
   <cellStyles count="10">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1287,10 +1224,10 @@
     <cellStyle name="Currency" xfId="17" builtinId="4"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
-    <cellStyle name="Heading 3" xfId="20"/>
-    <cellStyle name="Heading1" xfId="21"/>
-    <cellStyle name="Result" xfId="22"/>
-    <cellStyle name="Result2" xfId="23"/>
+    <cellStyle name="Result" xfId="20"/>
+    <cellStyle name="Result2" xfId="21"/>
+    <cellStyle name="Heading" xfId="22"/>
+    <cellStyle name="Heading1" xfId="23"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -1362,7 +1299,7 @@
   </sheetPr>
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="true" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="true" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -1373,9 +1310,9 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="8.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="9.81"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="0" width="8.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="8.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="8.77"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="7.81"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="8.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="8.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="8.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="7.98"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="12" style="0" width="11.52"/>
@@ -1481,7 +1418,7 @@
         <f aca="false">F2-D2</f>
         <v>5</v>
       </c>
-      <c r="E5" s="9" t="n">
+      <c r="E5" s="10" t="n">
         <f aca="false">I2-H2</f>
         <v>7</v>
       </c>
@@ -1493,7 +1430,7 @@
         <f aca="false">I2-H2</f>
         <v>7</v>
       </c>
-      <c r="H5" s="10" t="n">
+      <c r="H5" s="11" t="n">
         <f aca="false">SUM(B5:G5)/6</f>
         <v>6.5</v>
       </c>
@@ -1526,7 +1463,7 @@
         <f aca="false">H2-E2</f>
         <v>5</v>
       </c>
-      <c r="H6" s="10" t="n">
+      <c r="H6" s="11" t="n">
         <f aca="false">SUM(B6:G6)/6</f>
         <v>11.5</v>
       </c>
@@ -1559,40 +1496,40 @@
         <f aca="false">E2</f>
         <v>25</v>
       </c>
-      <c r="H7" s="10" t="n">
+      <c r="H7" s="11" t="n">
         <f aca="false">SUM(B7:G7)/6</f>
         <v>19</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="12" t="n">
+      <c r="B8" s="13" t="n">
         <f aca="false">SUM(B5:B7)</f>
         <v>37</v>
       </c>
-      <c r="C8" s="12" t="n">
+      <c r="C8" s="13" t="n">
         <f aca="false">SUM(C5:C7)</f>
         <v>37</v>
       </c>
-      <c r="D8" s="12" t="n">
+      <c r="D8" s="13" t="n">
         <f aca="false">SUM(D5:D7)</f>
         <v>37</v>
       </c>
-      <c r="E8" s="12" t="n">
+      <c r="E8" s="13" t="n">
         <f aca="false">SUM(E5:E7)</f>
         <v>37</v>
       </c>
-      <c r="F8" s="12" t="n">
+      <c r="F8" s="13" t="n">
         <f aca="false">SUM(F5:F7)</f>
         <v>37</v>
       </c>
-      <c r="G8" s="12" t="n">
+      <c r="G8" s="13" t="n">
         <f aca="false">SUM(G5:G7)</f>
         <v>37</v>
       </c>
-      <c r="H8" s="12" t="n">
+      <c r="H8" s="13" t="n">
         <f aca="false">SUM(H5:H7)</f>
         <v>37</v>
       </c>
@@ -1675,7 +1612,7 @@
         <f aca="false">F12-D12</f>
         <v>5</v>
       </c>
-      <c r="E15" s="9" t="n">
+      <c r="E15" s="10" t="n">
         <f aca="false">I12-H12</f>
         <v>5</v>
       </c>
@@ -1687,7 +1624,7 @@
         <f aca="false">I12-H12</f>
         <v>5</v>
       </c>
-      <c r="H15" s="10" t="n">
+      <c r="H15" s="11" t="n">
         <f aca="false">SUM(B15:G15)/6</f>
         <v>7.5</v>
       </c>
@@ -1720,7 +1657,7 @@
         <f aca="false">H12-E12</f>
         <v>15</v>
       </c>
-      <c r="H16" s="10" t="n">
+      <c r="H16" s="11" t="n">
         <f aca="false">SUM(B16:G16)/6</f>
         <v>12.5</v>
       </c>
@@ -1753,40 +1690,40 @@
         <f aca="false">E12</f>
         <v>0</v>
       </c>
-      <c r="H17" s="10" t="n">
+      <c r="H17" s="11" t="n">
         <f aca="false">SUM(B17:G17)/6</f>
         <v>0</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="11" t="s">
+      <c r="A18" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="12" t="n">
+      <c r="B18" s="13" t="n">
         <f aca="false">SUM(B15:B17)</f>
         <v>20</v>
       </c>
-      <c r="C18" s="12" t="n">
+      <c r="C18" s="13" t="n">
         <f aca="false">SUM(C15:C17)</f>
         <v>20</v>
       </c>
-      <c r="D18" s="12" t="n">
+      <c r="D18" s="13" t="n">
         <f aca="false">SUM(D15:D17)</f>
         <v>20</v>
       </c>
-      <c r="E18" s="12" t="n">
+      <c r="E18" s="13" t="n">
         <f aca="false">SUM(E15:E17)</f>
         <v>20</v>
       </c>
-      <c r="F18" s="12" t="n">
+      <c r="F18" s="13" t="n">
         <f aca="false">SUM(F15:F17)</f>
         <v>20</v>
       </c>
-      <c r="G18" s="12" t="n">
+      <c r="G18" s="13" t="n">
         <f aca="false">SUM(G15:G17)</f>
         <v>20</v>
       </c>
-      <c r="H18" s="12" t="n">
+      <c r="H18" s="13" t="n">
         <f aca="false">SUM(H15:H17)</f>
         <v>20</v>
       </c>
@@ -1807,9 +1744,9 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="true" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="true" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -1820,9 +1757,9 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="8.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="9.81"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="0" width="8.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="8.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="8.77"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="7.81"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="8.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="8.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="8.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="7.98"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="12" style="0" width="11.52"/>
@@ -1940,7 +1877,7 @@
         <f aca="false">I2-H2</f>
         <v>2</v>
       </c>
-      <c r="H5" s="10" t="n">
+      <c r="H5" s="11" t="n">
         <f aca="false">SUM(B5:G5)/6</f>
         <v>5.5</v>
       </c>
@@ -1973,7 +1910,7 @@
         <f aca="false">H2-E2</f>
         <v>10</v>
       </c>
-      <c r="H6" s="10" t="n">
+      <c r="H6" s="11" t="n">
         <f aca="false">SUM(B6:G6)/6</f>
         <v>11</v>
       </c>
@@ -2006,40 +1943,40 @@
         <f aca="false">E2</f>
         <v>25</v>
       </c>
-      <c r="H7" s="10" t="n">
+      <c r="H7" s="11" t="n">
         <f aca="false">SUM(B7:G7)/6</f>
         <v>20.5</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="12" t="n">
+      <c r="B8" s="13" t="n">
         <f aca="false">SUM(B5:B7)</f>
         <v>37</v>
       </c>
-      <c r="C8" s="12" t="n">
+      <c r="C8" s="13" t="n">
         <f aca="false">SUM(C5:C7)</f>
         <v>37</v>
       </c>
-      <c r="D8" s="12" t="n">
+      <c r="D8" s="13" t="n">
         <f aca="false">SUM(D5:D7)</f>
         <v>37</v>
       </c>
-      <c r="E8" s="12" t="n">
+      <c r="E8" s="13" t="n">
         <f aca="false">SUM(E5:E7)</f>
         <v>37</v>
       </c>
-      <c r="F8" s="12" t="n">
+      <c r="F8" s="13" t="n">
         <f aca="false">SUM(F5:F7)</f>
         <v>37</v>
       </c>
-      <c r="G8" s="12" t="n">
+      <c r="G8" s="13" t="n">
         <f aca="false">SUM(G5:G7)</f>
         <v>37</v>
       </c>
-      <c r="H8" s="12" t="n">
+      <c r="H8" s="13" t="n">
         <f aca="false">SUM(H5:H7)</f>
         <v>37</v>
       </c>
@@ -2134,7 +2071,7 @@
         <f aca="false">I12-H12</f>
         <v>5</v>
       </c>
-      <c r="H15" s="10" t="n">
+      <c r="H15" s="11" t="n">
         <f aca="false">SUM(B15:G15)/6</f>
         <v>7.5</v>
       </c>
@@ -2167,7 +2104,7 @@
         <f aca="false">H12-E12</f>
         <v>15</v>
       </c>
-      <c r="H16" s="10" t="n">
+      <c r="H16" s="11" t="n">
         <f aca="false">SUM(B16:G16)/6</f>
         <v>12.5</v>
       </c>
@@ -2200,48 +2137,435 @@
         <f aca="false">E12</f>
         <v>0</v>
       </c>
-      <c r="H17" s="10" t="n">
+      <c r="H17" s="11" t="n">
         <f aca="false">SUM(B17:G17)/6</f>
         <v>0</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="11" t="s">
+      <c r="A18" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="12" t="n">
+      <c r="B18" s="13" t="n">
         <f aca="false">SUM(B15:B17)</f>
         <v>20</v>
       </c>
-      <c r="C18" s="12" t="n">
+      <c r="C18" s="13" t="n">
         <f aca="false">SUM(C15:C17)</f>
         <v>20</v>
       </c>
-      <c r="D18" s="12" t="n">
+      <c r="D18" s="13" t="n">
         <f aca="false">SUM(D15:D17)</f>
         <v>20</v>
       </c>
-      <c r="E18" s="12" t="n">
+      <c r="E18" s="13" t="n">
         <f aca="false">SUM(E15:E17)</f>
         <v>20</v>
       </c>
-      <c r="F18" s="12" t="n">
+      <c r="F18" s="13" t="n">
         <f aca="false">SUM(F15:F17)</f>
         <v>20</v>
       </c>
-      <c r="G18" s="12" t="n">
+      <c r="G18" s="13" t="n">
         <f aca="false">SUM(G15:G17)</f>
         <v>20</v>
       </c>
-      <c r="H18" s="12" t="n">
+      <c r="H18" s="13" t="n">
         <f aca="false">SUM(H15:H17)</f>
         <v>20</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="5" t="n">
+        <f aca="false">B2</f>
+        <v>0</v>
+      </c>
+      <c r="C22" s="5" t="n">
+        <f aca="false">C2</f>
+        <v>10</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <f aca="false">E2</f>
+        <v>25</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <f aca="false">C2</f>
+        <v>10</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <f aca="false">G2</f>
+        <v>29</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <f aca="false">E2</f>
+        <v>25</v>
+      </c>
+      <c r="I22" s="5" t="n">
+        <f aca="false">G2</f>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H24" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B25" s="9" t="n">
+        <f aca="false">C22</f>
+        <v>10</v>
+      </c>
+      <c r="C25" s="9" t="n">
+        <f aca="false">C22</f>
+        <v>10</v>
+      </c>
+      <c r="D25" s="9" t="n">
+        <f aca="false">F22-D22</f>
+        <v>10</v>
+      </c>
+      <c r="E25" s="9" t="n">
+        <f aca="false">I22-H22</f>
+        <v>4</v>
+      </c>
+      <c r="F25" s="9" t="n">
+        <f aca="false">G22-E22</f>
+        <v>4</v>
+      </c>
+      <c r="G25" s="9" t="n">
+        <f aca="false">I22-H22</f>
+        <v>4</v>
+      </c>
+      <c r="H25" s="11" t="n">
+        <f aca="false">SUM(B25:G25)/6</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B26" s="9" t="n">
+        <f aca="false">F22-C22</f>
+        <v>0</v>
+      </c>
+      <c r="C26" s="9" t="n">
+        <f aca="false">I22-G22</f>
+        <v>0</v>
+      </c>
+      <c r="D26" s="9" t="n">
+        <f aca="false">D22</f>
+        <v>0</v>
+      </c>
+      <c r="E26" s="9" t="n">
+        <f aca="false">D22</f>
+        <v>0</v>
+      </c>
+      <c r="F26" s="9" t="n">
+        <f aca="false">I22-G22</f>
+        <v>0</v>
+      </c>
+      <c r="G26" s="9" t="n">
+        <f aca="false">H22-E22</f>
+        <v>0</v>
+      </c>
+      <c r="H26" s="11" t="n">
+        <f aca="false">SUM(B26:G26)/6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B27" s="9" t="n">
+        <f aca="false">I22-F22</f>
+        <v>19</v>
+      </c>
+      <c r="C27" s="9" t="n">
+        <f aca="false">G22-C22</f>
+        <v>19</v>
+      </c>
+      <c r="D27" s="9" t="n">
+        <f aca="false">I22-F22</f>
+        <v>19</v>
+      </c>
+      <c r="E27" s="9" t="n">
+        <f aca="false">H22-D22</f>
+        <v>25</v>
+      </c>
+      <c r="F27" s="9" t="n">
+        <f aca="false">E22</f>
+        <v>25</v>
+      </c>
+      <c r="G27" s="9" t="n">
+        <f aca="false">E22</f>
+        <v>25</v>
+      </c>
+      <c r="H27" s="11" t="n">
+        <f aca="false">SUM(B27:G27)/6</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B28" s="13" t="n">
+        <f aca="false">SUM(B25:B27)</f>
+        <v>29</v>
+      </c>
+      <c r="C28" s="13" t="n">
+        <f aca="false">SUM(C25:C27)</f>
+        <v>29</v>
+      </c>
+      <c r="D28" s="13" t="n">
+        <f aca="false">SUM(D25:D27)</f>
+        <v>29</v>
+      </c>
+      <c r="E28" s="13" t="n">
+        <f aca="false">SUM(E25:E27)</f>
+        <v>29</v>
+      </c>
+      <c r="F28" s="13" t="n">
+        <f aca="false">SUM(F25:F27)</f>
+        <v>29</v>
+      </c>
+      <c r="G28" s="13" t="n">
+        <f aca="false">SUM(G25:G27)</f>
+        <v>29</v>
+      </c>
+      <c r="H28" s="13" t="n">
+        <f aca="false">SUM(H25:H27)</f>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B32" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C32" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" s="5" t="n">
+        <f aca="false">D2</f>
+        <v>15</v>
+      </c>
+      <c r="E32" s="5" t="n">
+        <f aca="false">E2</f>
+        <v>25</v>
+      </c>
+      <c r="F32" s="5" t="n">
+        <f aca="false">D2</f>
+        <v>15</v>
+      </c>
+      <c r="G32" s="5" t="n">
+        <f aca="false">E2</f>
+        <v>25</v>
+      </c>
+      <c r="H32" s="5" t="n">
+        <f aca="false">H2</f>
+        <v>35</v>
+      </c>
+      <c r="I32" s="5" t="n">
+        <f aca="false">H2</f>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H34" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B35" s="9" t="n">
+        <f aca="false">C32</f>
+        <v>0</v>
+      </c>
+      <c r="C35" s="9" t="n">
+        <f aca="false">C32</f>
+        <v>0</v>
+      </c>
+      <c r="D35" s="9" t="n">
+        <f aca="false">F32-D32</f>
+        <v>0</v>
+      </c>
+      <c r="E35" s="9" t="n">
+        <f aca="false">I32-H32</f>
+        <v>0</v>
+      </c>
+      <c r="F35" s="9" t="n">
+        <f aca="false">G32-E32</f>
+        <v>0</v>
+      </c>
+      <c r="G35" s="9" t="n">
+        <f aca="false">I32-H32</f>
+        <v>0</v>
+      </c>
+      <c r="H35" s="11" t="n">
+        <f aca="false">SUM(B35:G35)/6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B36" s="9" t="n">
+        <f aca="false">F32-C32</f>
+        <v>15</v>
+      </c>
+      <c r="C36" s="9" t="n">
+        <f aca="false">I32-G32</f>
+        <v>10</v>
+      </c>
+      <c r="D36" s="9" t="n">
+        <f aca="false">D32</f>
+        <v>15</v>
+      </c>
+      <c r="E36" s="9" t="n">
+        <f aca="false">D32</f>
+        <v>15</v>
+      </c>
+      <c r="F36" s="9" t="n">
+        <f aca="false">I32-G32</f>
+        <v>10</v>
+      </c>
+      <c r="G36" s="9" t="n">
+        <f aca="false">H32-E32</f>
+        <v>10</v>
+      </c>
+      <c r="H36" s="11" t="n">
+        <f aca="false">SUM(B36:G36)/6</f>
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B37" s="9" t="n">
+        <f aca="false">I32-F32</f>
+        <v>20</v>
+      </c>
+      <c r="C37" s="9" t="n">
+        <f aca="false">G32-C32</f>
+        <v>25</v>
+      </c>
+      <c r="D37" s="9" t="n">
+        <f aca="false">I32-F32</f>
+        <v>20</v>
+      </c>
+      <c r="E37" s="9" t="n">
+        <f aca="false">H32-D32</f>
+        <v>20</v>
+      </c>
+      <c r="F37" s="9" t="n">
+        <f aca="false">E32</f>
+        <v>25</v>
+      </c>
+      <c r="G37" s="9" t="n">
+        <f aca="false">E32</f>
+        <v>25</v>
+      </c>
+      <c r="H37" s="11" t="n">
+        <f aca="false">SUM(B37:G37)/6</f>
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B38" s="13" t="n">
+        <f aca="false">SUM(B35:B37)</f>
+        <v>35</v>
+      </c>
+      <c r="C38" s="13" t="n">
+        <f aca="false">SUM(C35:C37)</f>
+        <v>35</v>
+      </c>
+      <c r="D38" s="13" t="n">
+        <f aca="false">SUM(D35:D37)</f>
+        <v>35</v>
+      </c>
+      <c r="E38" s="13" t="n">
+        <f aca="false">SUM(E35:E37)</f>
+        <v>35</v>
+      </c>
+      <c r="F38" s="13" t="n">
+        <f aca="false">SUM(F35:F37)</f>
+        <v>35</v>
+      </c>
+      <c r="G38" s="13" t="n">
+        <f aca="false">SUM(G35:G37)</f>
+        <v>35</v>
+      </c>
+      <c r="H38" s="13" t="n">
+        <f aca="false">SUM(H35:H37)</f>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -2254,22 +2578,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="true" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="true" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="14.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="8.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="9.81"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="0" width="8.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="8.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="8.77"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="7.81"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="8.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="8.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="8.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="7.98"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="12" style="0" width="11.52"/>
@@ -2333,168 +2657,436 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="6" t="s">
+    <row r="3" s="15" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="14"/>
+    </row>
+    <row r="4" s="17" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="17" t="n">
+        <v>8</v>
+      </c>
+      <c r="D4" s="17" t="n">
+        <v>22</v>
+      </c>
+      <c r="E4" s="17" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" s="19" t="n">
+        <f aca="false">va-C2/1</f>
+        <v>-2</v>
+      </c>
+      <c r="D6" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <f aca="false">va-F2/2</f>
+        <v>-2</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <f aca="false">va-G2/2</f>
+        <v>-4.5</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <f aca="false">va-I2/3</f>
+        <v>-4.33333333333333</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" s="19" t="n">
+        <f aca="false">vb-D2/1</f>
+        <v>7</v>
+      </c>
+      <c r="E7" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <f aca="false">vb-F2/2</f>
+        <v>12</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" s="0" t="n">
+        <f aca="false">vb-H2/2</f>
+        <v>7</v>
+      </c>
+      <c r="I7" s="0" t="n">
+        <f aca="false">vb-I2/3</f>
+        <v>9.66666666666667</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" s="19" t="n">
+        <f aca="false">vc-E2/1</f>
+        <v>-9</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <f aca="false">vc-G2/2</f>
+        <v>3.5</v>
+      </c>
+      <c r="H8" s="0" t="n">
+        <f aca="false">vc-H2/2</f>
+        <v>1</v>
+      </c>
+      <c r="I8" s="0" t="n">
+        <f aca="false">vc-I2/3</f>
+        <v>3.66666666666667</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <f aca="false">-B2</f>
+        <v>-0</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" s="19" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="21" t="n">
+        <f aca="false">SUM(B6:B9)</f>
+        <v>0</v>
+      </c>
+      <c r="C11" s="21" t="n">
+        <f aca="false">SUM(C6:C9)</f>
+        <v>-2</v>
+      </c>
+      <c r="D11" s="21" t="n">
+        <f aca="false">SUM(D6:D9)</f>
+        <v>7</v>
+      </c>
+      <c r="E11" s="21" t="n">
+        <f aca="false">SUM(E6:E9)</f>
+        <v>-9</v>
+      </c>
+      <c r="F11" s="20" t="n">
+        <f aca="false">SUM(F6:F9)</f>
+        <v>10</v>
+      </c>
+      <c r="G11" s="21" t="n">
+        <f aca="false">SUM(G6:G9)</f>
+        <v>-1</v>
+      </c>
+      <c r="H11" s="21" t="n">
+        <f aca="false">SUM(H6:H9)</f>
+        <v>8</v>
+      </c>
+      <c r="I11" s="21" t="n">
+        <f aca="false">SUM(I6:I9)</f>
         <v>9</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="7" t="s">
+    </row>
+    <row r="12" s="15" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="22" t="n">
+        <f aca="false">B11=MAX($B$11:$I$11)</f>
+        <v>0</v>
+      </c>
+      <c r="C12" s="22" t="n">
+        <f aca="false">C11=MAX($B$11:$I$11)</f>
+        <v>0</v>
+      </c>
+      <c r="D12" s="22" t="n">
+        <f aca="false">D11=MAX($B$11:$I$11)</f>
+        <v>0</v>
+      </c>
+      <c r="E12" s="22" t="n">
+        <f aca="false">E11=MAX($B$11:$I$11)</f>
+        <v>0</v>
+      </c>
+      <c r="F12" s="23" t="n">
+        <f aca="false">F11=MAX($B$11:$I$11)</f>
+        <v>1</v>
+      </c>
+      <c r="G12" s="22" t="n">
+        <f aca="false">G11=MAX($B$11:$I$11)</f>
+        <v>0</v>
+      </c>
+      <c r="H12" s="22" t="n">
+        <f aca="false">H11=MAX($B$11:$I$11)</f>
+        <v>0</v>
+      </c>
+      <c r="I12" s="22" t="n">
+        <f aca="false">I11=MAX($B$11:$I$11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" s="15" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="24" t="n">
+        <f aca="false">B$11-B6</f>
+        <v>0</v>
+      </c>
+      <c r="C14" s="24" t="n">
+        <f aca="false">C$11-C6</f>
+        <v>0</v>
+      </c>
+      <c r="D14" s="24" t="n">
+        <f aca="false">D$11-D6</f>
+        <v>7</v>
+      </c>
+      <c r="E14" s="24" t="n">
+        <f aca="false">E$11-E6</f>
+        <v>-9</v>
+      </c>
+      <c r="F14" s="24" t="n">
+        <f aca="false">F$11-F6</f>
         <v>12</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="6" t="s">
+      <c r="G14" s="24" t="n">
+        <f aca="false">G$11-G6</f>
+        <v>3.5</v>
+      </c>
+      <c r="H14" s="24" t="n">
+        <f aca="false">H$11-H6</f>
+        <v>8</v>
+      </c>
+      <c r="I14" s="7" t="n">
+        <f aca="false">I$11-I6</f>
+        <v>13.3333333333333</v>
+      </c>
+    </row>
+    <row r="15" s="15" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="24" t="n">
+        <f aca="false">B$11-B7</f>
+        <v>0</v>
+      </c>
+      <c r="C15" s="24" t="n">
+        <f aca="false">C$11-C7</f>
+        <v>-2</v>
+      </c>
+      <c r="D15" s="24" t="n">
+        <f aca="false">D$11-D7</f>
+        <v>0</v>
+      </c>
+      <c r="E15" s="24" t="n">
+        <f aca="false">E$11-E7</f>
+        <v>-9</v>
+      </c>
+      <c r="F15" s="24" t="n">
+        <f aca="false">F$11-F7</f>
+        <v>-2</v>
+      </c>
+      <c r="G15" s="24" t="n">
+        <f aca="false">G$11-G7</f>
+        <v>-1</v>
+      </c>
+      <c r="H15" s="7" t="n">
+        <f aca="false">H$11-H7</f>
+        <v>1</v>
+      </c>
+      <c r="I15" s="24" t="n">
+        <f aca="false">I$11-I7</f>
+        <v>-0.666666666666668</v>
+      </c>
+    </row>
+    <row r="16" s="15" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="24" t="n">
+        <f aca="false">B$11-B8</f>
+        <v>0</v>
+      </c>
+      <c r="C16" s="24" t="n">
+        <f aca="false">C$11-C8</f>
+        <v>-2</v>
+      </c>
+      <c r="D16" s="24" t="n">
+        <f aca="false">D$11-D8</f>
+        <v>7</v>
+      </c>
+      <c r="E16" s="24" t="n">
+        <f aca="false">E$11-E8</f>
+        <v>0</v>
+      </c>
+      <c r="F16" s="7" t="n">
+        <f aca="false">F$11-F8</f>
+        <v>10</v>
+      </c>
+      <c r="G16" s="24" t="n">
+        <f aca="false">G$11-G8</f>
+        <v>-4.5</v>
+      </c>
+      <c r="H16" s="24" t="n">
+        <f aca="false">H$11-H8</f>
+        <v>7</v>
+      </c>
+      <c r="I16" s="24" t="n">
+        <f aca="false">I$11-I8</f>
+        <v>5.33333333333333</v>
+      </c>
+    </row>
+    <row r="19" s="15" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="25"/>
+      <c r="B19" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" s="27" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" s="15" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="9" t="n">
-        <f aca="false">a</f>
-        <v>10</v>
-      </c>
-      <c r="C6" s="9" t="n">
-        <f aca="false">a</f>
-        <v>10</v>
-      </c>
-      <c r="D6" s="9" t="n">
-        <f aca="false">ab-b</f>
-        <v>5</v>
-      </c>
-      <c r="E6" s="9" t="n">
-        <f aca="false">abg-bg</f>
-        <v>7</v>
-      </c>
-      <c r="F6" s="9" t="n">
-        <f aca="false">ag-g</f>
-        <v>0</v>
-      </c>
-      <c r="G6" s="9" t="n">
-        <f aca="false">abg-bg</f>
-        <v>7</v>
-      </c>
-      <c r="H6" s="10" t="n">
-        <f aca="false">SUM(B6:G6)/6</f>
-        <v>6.5</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="6" t="s">
+      <c r="B20" s="28" t="n">
+        <f aca="false">I14-F14</f>
+        <v>1.33333333333333</v>
+      </c>
+      <c r="C20" s="29" t="n">
+        <f aca="false">F6</f>
+        <v>-2</v>
+      </c>
+      <c r="D20" s="30" t="n">
+        <f aca="false">C20-B20</f>
+        <v>-3.33333333333333</v>
+      </c>
+      <c r="E20" s="0"/>
+      <c r="G20" s="31" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" s="15" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="9" t="n">
-        <f aca="false">ab-a</f>
-        <v>10</v>
-      </c>
-      <c r="C7" s="9" t="n">
-        <f aca="false">abg-ag</f>
+      <c r="B21" s="32" t="n">
+        <f aca="false">H15-F15</f>
+        <v>3</v>
+      </c>
+      <c r="C21" s="29" t="n">
+        <f aca="false">F7</f>
         <v>12</v>
       </c>
-      <c r="D7" s="9" t="n">
-        <f aca="false">b</f>
-        <v>15</v>
-      </c>
-      <c r="E7" s="9" t="n">
-        <f aca="false">b</f>
-        <v>15</v>
-      </c>
-      <c r="F7" s="9" t="n">
-        <f aca="false">abg-ag</f>
-        <v>12</v>
-      </c>
-      <c r="G7" s="9" t="n">
-        <f aca="false">bg-g</f>
-        <v>5</v>
-      </c>
-      <c r="H7" s="10" t="n">
-        <f aca="false">SUM(B7:G7)/6</f>
-        <v>11.5</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="6" t="s">
+      <c r="D21" s="32" t="n">
+        <f aca="false">C21-B21</f>
+        <v>9</v>
+      </c>
+      <c r="F21" s="14"/>
+      <c r="G21" s="33"/>
+      <c r="H21" s="14"/>
+      <c r="J21" s="34"/>
+    </row>
+    <row r="22" s="15" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="9" t="n">
-        <f aca="false">abg-ab</f>
-        <v>17</v>
-      </c>
-      <c r="C8" s="9" t="n">
-        <f aca="false">ag-a</f>
-        <v>15</v>
-      </c>
-      <c r="D8" s="9" t="n">
-        <f aca="false">abg-ab</f>
-        <v>17</v>
-      </c>
-      <c r="E8" s="9" t="n">
-        <f aca="false">bg-b</f>
-        <v>15</v>
-      </c>
-      <c r="F8" s="9" t="n">
-        <f aca="false">g</f>
-        <v>25</v>
-      </c>
-      <c r="G8" s="9" t="n">
-        <f aca="false">g</f>
-        <v>25</v>
-      </c>
-      <c r="H8" s="10" t="n">
-        <f aca="false">SUM(B8:G8)/6</f>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="12" t="n">
-        <f aca="false">SUM(B6:B8)</f>
+      <c r="B22" s="32" t="n">
+        <f aca="false">F16-F16</f>
+        <v>0</v>
+      </c>
+      <c r="C22" s="29" t="n">
+        <f aca="false">F8</f>
+        <v>0</v>
+      </c>
+      <c r="D22" s="30" t="n">
+        <f aca="false">C22-B22</f>
+        <v>0</v>
+      </c>
+      <c r="F22" s="33"/>
+      <c r="G22" s="33"/>
+      <c r="H22" s="33"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="12" t="n">
-        <f aca="false">SUM(C6:C8)</f>
-        <v>37</v>
-      </c>
-      <c r="D9" s="12" t="n">
-        <f aca="false">SUM(D6:D8)</f>
-        <v>37</v>
-      </c>
-      <c r="E9" s="12" t="n">
-        <f aca="false">SUM(E6:E8)</f>
-        <v>37</v>
-      </c>
-      <c r="F9" s="12" t="n">
-        <f aca="false">SUM(F6:F8)</f>
-        <v>37</v>
-      </c>
-      <c r="G9" s="12" t="n">
-        <f aca="false">SUM(G6:G8)</f>
-        <v>37</v>
-      </c>
-      <c r="H9" s="12" t="n">
-        <f aca="false">SUM(H6:H8)</f>
-        <v>37</v>
-      </c>
+      <c r="B23" s="30"/>
+      <c r="C23" s="29" t="n">
+        <f aca="false">F9</f>
+        <v>0</v>
+      </c>
+      <c r="D23" s="27" t="n">
+        <f aca="false">SUM(B20:B22)+C23</f>
+        <v>4.33333333333333</v>
+      </c>
+    </row>
+    <row r="28" s="15" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0"/>
+      <c r="B28" s="0"/>
+      <c r="C28" s="0"/>
+      <c r="D28" s="0"/>
+      <c r="E28" s="0"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -2507,10 +3099,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J26"/>
+  <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="true" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="true" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2520,9 +3112,9 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="8.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="9.81"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="0" width="8.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="8.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="8.77"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="7.81"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="8.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="8.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="8.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="7.98"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="12" style="0" width="11.52"/>
@@ -2586,421 +3178,442 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="13" t="s">
+    <row r="3" s="15" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="14"/>
+    </row>
+    <row r="4" s="17" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="17" t="n">
+        <v>8</v>
+      </c>
+      <c r="D4" s="17" t="n">
         <v>22</v>
       </c>
-      <c r="B4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C4" s="14" t="n">
-        <v>8</v>
-      </c>
-      <c r="D4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" s="0" t="n">
+      <c r="E4" s="17" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" s="19" t="n">
         <f aca="false">va</f>
         <v>8</v>
       </c>
-      <c r="G4" s="0" t="n">
+      <c r="D6" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" s="0" t="n">
         <f aca="false">va</f>
         <v>8</v>
       </c>
-      <c r="H4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" s="0" t="n">
+      <c r="G6" s="0" t="n">
         <f aca="false">va</f>
         <v>8</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" s="14" t="n">
-        <v>22</v>
-      </c>
-      <c r="E5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" s="0" t="n">
+      <c r="H6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <f aca="false">va</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" s="19" t="n">
         <f aca="false">vb</f>
         <v>22</v>
       </c>
-      <c r="G5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" s="0" t="n">
+      <c r="E7" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" s="0" t="n">
         <f aca="false">vb</f>
         <v>22</v>
       </c>
-      <c r="I5" s="0" t="n">
+      <c r="G7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" s="0" t="n">
         <f aca="false">vb</f>
         <v>22</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" s="14" t="n">
-        <v>16</v>
-      </c>
-      <c r="F6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" s="0" t="n">
+      <c r="I7" s="0" t="n">
+        <f aca="false">vb</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" s="19" t="n">
         <f aca="false">vc</f>
         <v>16</v>
       </c>
-      <c r="H6" s="0" t="n">
+      <c r="F8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" s="0" t="n">
         <f aca="false">vc</f>
         <v>16</v>
       </c>
-      <c r="I6" s="0" t="n">
+      <c r="H8" s="0" t="n">
         <f aca="false">vc</f>
         <v>16</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" s="0" t="n">
+      <c r="I8" s="0" t="n">
+        <f aca="false">vc</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="0" t="n">
         <f aca="false">-B2</f>
         <v>-0</v>
       </c>
-      <c r="C7" s="0" t="n">
+      <c r="C9" s="0" t="n">
         <f aca="false">-C2</f>
         <v>-10</v>
       </c>
-      <c r="D7" s="0" t="n">
+      <c r="D9" s="0" t="n">
         <f aca="false">-D2</f>
         <v>-15</v>
       </c>
-      <c r="E7" s="0" t="n">
+      <c r="E9" s="0" t="n">
         <f aca="false">-E2</f>
         <v>-25</v>
       </c>
-      <c r="F7" s="0" t="n">
+      <c r="F9" s="0" t="n">
         <f aca="false">-F2</f>
         <v>-20</v>
       </c>
-      <c r="G7" s="0" t="n">
+      <c r="G9" s="0" t="n">
         <f aca="false">-G2</f>
         <v>-25</v>
       </c>
-      <c r="H7" s="0" t="n">
+      <c r="H9" s="0" t="n">
         <f aca="false">-H2</f>
         <v>-30</v>
       </c>
-      <c r="I7" s="0" t="n">
+      <c r="I9" s="0" t="n">
         <f aca="false">-I2</f>
         <v>-37</v>
       </c>
     </row>
-    <row r="9" s="17" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="15" t="s">
+    <row r="11" s="19" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="16" t="n">
-        <f aca="false">SUM(B4:B7)</f>
-        <v>0</v>
-      </c>
-      <c r="C9" s="16" t="n">
-        <f aca="false">SUM(C4:C7)</f>
+      <c r="B11" s="21" t="n">
+        <f aca="false">SUM(B6:B9)</f>
+        <v>0</v>
+      </c>
+      <c r="C11" s="21" t="n">
+        <f aca="false">SUM(C6:C9)</f>
         <v>-2</v>
       </c>
-      <c r="D9" s="16" t="n">
-        <f aca="false">SUM(D4:D7)</f>
+      <c r="D11" s="21" t="n">
+        <f aca="false">SUM(D6:D9)</f>
         <v>7</v>
       </c>
-      <c r="E9" s="16" t="n">
-        <f aca="false">SUM(E4:E7)</f>
+      <c r="E11" s="21" t="n">
+        <f aca="false">SUM(E6:E9)</f>
         <v>-9</v>
       </c>
-      <c r="F9" s="15" t="n">
-        <f aca="false">SUM(F4:F7)</f>
-        <v>10</v>
-      </c>
-      <c r="G9" s="16" t="n">
-        <f aca="false">SUM(G4:G7)</f>
+      <c r="F11" s="20" t="n">
+        <f aca="false">SUM(F6:F9)</f>
+        <v>10</v>
+      </c>
+      <c r="G11" s="21" t="n">
+        <f aca="false">SUM(G6:G9)</f>
         <v>-1</v>
       </c>
-      <c r="H9" s="16" t="n">
-        <f aca="false">SUM(H4:H7)</f>
+      <c r="H11" s="21" t="n">
+        <f aca="false">SUM(H6:H9)</f>
         <v>8</v>
       </c>
-      <c r="I9" s="16" t="n">
-        <f aca="false">SUM(I4:I7)</f>
+      <c r="I11" s="21" t="n">
+        <f aca="false">SUM(I6:I9)</f>
         <v>9</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" s="18" t="n">
-        <f aca="false">B9=MAX($B$9:$I$9)</f>
-        <v>0</v>
-      </c>
-      <c r="C10" s="18" t="n">
-        <f aca="false">C9=MAX($B$9:$I$9)</f>
-        <v>0</v>
-      </c>
-      <c r="D10" s="18" t="n">
-        <f aca="false">D9=MAX($B$9:$I$9)</f>
-        <v>0</v>
-      </c>
-      <c r="E10" s="18" t="n">
-        <f aca="false">E9=MAX($B$9:$I$9)</f>
-        <v>0</v>
-      </c>
-      <c r="F10" s="18" t="n">
-        <f aca="false">F9=MAX($B$9:$I$9)</f>
+    <row r="12" s="15" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="22" t="n">
+        <f aca="false">B11=MAX($B$11:$I$11)</f>
+        <v>0</v>
+      </c>
+      <c r="C12" s="22" t="n">
+        <f aca="false">C11=MAX($B$11:$I$11)</f>
+        <v>0</v>
+      </c>
+      <c r="D12" s="22" t="n">
+        <f aca="false">D11=MAX($B$11:$I$11)</f>
+        <v>0</v>
+      </c>
+      <c r="E12" s="22" t="n">
+        <f aca="false">E11=MAX($B$11:$I$11)</f>
+        <v>0</v>
+      </c>
+      <c r="F12" s="23" t="n">
+        <f aca="false">F11=MAX($B$11:$I$11)</f>
         <v>1</v>
       </c>
-      <c r="G10" s="18" t="n">
-        <f aca="false">G9=MAX($B$9:$I$9)</f>
-        <v>0</v>
-      </c>
-      <c r="H10" s="18" t="n">
-        <f aca="false">H9=MAX($B$9:$I$9)</f>
-        <v>0</v>
-      </c>
-      <c r="I10" s="18" t="n">
-        <f aca="false">I9=MAX($B$9:$I$9)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B12" s="19" t="n">
-        <f aca="false">B$9-B4</f>
-        <v>0</v>
-      </c>
-      <c r="C12" s="19" t="n">
-        <f aca="false">C$9-C4</f>
+      <c r="G12" s="22" t="n">
+        <f aca="false">G11=MAX($B$11:$I$11)</f>
+        <v>0</v>
+      </c>
+      <c r="H12" s="22" t="n">
+        <f aca="false">H11=MAX($B$11:$I$11)</f>
+        <v>0</v>
+      </c>
+      <c r="I12" s="22" t="n">
+        <f aca="false">I11=MAX($B$11:$I$11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" s="15" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="24" t="n">
+        <f aca="false">B$11-B6</f>
+        <v>0</v>
+      </c>
+      <c r="C14" s="24" t="n">
+        <f aca="false">C$11-C6</f>
         <v>-10</v>
       </c>
-      <c r="D12" s="19" t="n">
-        <f aca="false">D$9-D4</f>
+      <c r="D14" s="24" t="n">
+        <f aca="false">D$11-D6</f>
         <v>7</v>
       </c>
-      <c r="E12" s="19" t="n">
-        <f aca="false">E$9-E4</f>
+      <c r="E14" s="24" t="n">
+        <f aca="false">E$11-E6</f>
         <v>-9</v>
       </c>
-      <c r="F12" s="19" t="n">
-        <f aca="false">F$9-F4</f>
+      <c r="F14" s="24" t="n">
+        <f aca="false">F$11-F6</f>
         <v>2</v>
       </c>
-      <c r="G12" s="19" t="n">
-        <f aca="false">G$9-G4</f>
+      <c r="G14" s="24" t="n">
+        <f aca="false">G$11-G6</f>
         <v>-9</v>
       </c>
-      <c r="H12" s="7" t="n">
-        <f aca="false">H$9-H4</f>
+      <c r="H14" s="7" t="n">
+        <f aca="false">H$11-H6</f>
         <v>8</v>
       </c>
-      <c r="I12" s="19" t="n">
-        <f aca="false">I$9-I4</f>
+      <c r="I14" s="24" t="n">
+        <f aca="false">I$11-I6</f>
         <v>1</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B13" s="7" t="n">
-        <f aca="false">B$9-B5</f>
-        <v>0</v>
-      </c>
-      <c r="C13" s="19" t="n">
-        <f aca="false">C$9-C5</f>
+    <row r="15" s="15" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="7" t="n">
+        <f aca="false">B$11-B7</f>
+        <v>0</v>
+      </c>
+      <c r="C15" s="24" t="n">
+        <f aca="false">C$11-C7</f>
         <v>-2</v>
       </c>
-      <c r="D13" s="19" t="n">
-        <f aca="false">D$9-D5</f>
+      <c r="D15" s="24" t="n">
+        <f aca="false">D$11-D7</f>
         <v>-15</v>
       </c>
-      <c r="E13" s="19" t="n">
-        <f aca="false">E$9-E5</f>
+      <c r="E15" s="24" t="n">
+        <f aca="false">E$11-E7</f>
         <v>-9</v>
       </c>
-      <c r="F13" s="19" t="n">
-        <f aca="false">F$9-F5</f>
+      <c r="F15" s="24" t="n">
+        <f aca="false">F$11-F7</f>
         <v>-12</v>
       </c>
-      <c r="G13" s="19" t="n">
-        <f aca="false">G$9-G5</f>
+      <c r="G15" s="24" t="n">
+        <f aca="false">G$11-G7</f>
         <v>-1</v>
       </c>
-      <c r="H13" s="19" t="n">
-        <f aca="false">H$9-H5</f>
+      <c r="H15" s="24" t="n">
+        <f aca="false">H$11-H7</f>
         <v>-14</v>
       </c>
-      <c r="I13" s="19" t="n">
-        <f aca="false">I$9-I5</f>
+      <c r="I15" s="24" t="n">
+        <f aca="false">I$11-I7</f>
         <v>-13</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" s="19" t="n">
-        <f aca="false">B$9-B6</f>
-        <v>0</v>
-      </c>
-      <c r="C14" s="19" t="n">
-        <f aca="false">C$9-C6</f>
+    <row r="16" s="15" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="24" t="n">
+        <f aca="false">B$11-B8</f>
+        <v>0</v>
+      </c>
+      <c r="C16" s="24" t="n">
+        <f aca="false">C$11-C8</f>
         <v>-2</v>
       </c>
-      <c r="D14" s="19" t="n">
-        <f aca="false">D$9-D6</f>
+      <c r="D16" s="24" t="n">
+        <f aca="false">D$11-D8</f>
         <v>7</v>
       </c>
-      <c r="E14" s="19" t="n">
-        <f aca="false">E$9-E6</f>
+      <c r="E16" s="24" t="n">
+        <f aca="false">E$11-E8</f>
         <v>-25</v>
       </c>
-      <c r="F14" s="7" t="n">
-        <f aca="false">F$9-F6</f>
-        <v>10</v>
-      </c>
-      <c r="G14" s="19" t="n">
-        <f aca="false">G$9-G6</f>
+      <c r="F16" s="7" t="n">
+        <f aca="false">F$11-F8</f>
+        <v>10</v>
+      </c>
+      <c r="G16" s="24" t="n">
+        <f aca="false">G$11-G8</f>
         <v>-17</v>
       </c>
-      <c r="H14" s="19" t="n">
-        <f aca="false">H$9-H6</f>
+      <c r="H16" s="24" t="n">
+        <f aca="false">H$11-H8</f>
         <v>-8</v>
       </c>
-      <c r="I14" s="19" t="n">
-        <f aca="false">I$9-I6</f>
+      <c r="I16" s="24" t="n">
+        <f aca="false">I$11-I8</f>
         <v>-7</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="20"/>
-      <c r="B17" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="C17" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="D17" s="22" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="21" t="s">
+    <row r="19" s="15" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="25"/>
+      <c r="B19" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" s="27" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" s="15" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="23" t="n">
-        <f aca="false">H12-F12</f>
+      <c r="B20" s="28" t="n">
+        <f aca="false">H14-F14</f>
         <v>6</v>
       </c>
-      <c r="C18" s="24" t="n">
-        <f aca="false">F4</f>
+      <c r="C20" s="29" t="n">
+        <f aca="false">F6</f>
         <v>8</v>
       </c>
-      <c r="D18" s="24" t="n">
-        <f aca="false">C18-B18</f>
+      <c r="D20" s="30" t="n">
+        <f aca="false">C20-B20</f>
         <v>2</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="21" t="s">
+    <row r="21" s="15" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="25" t="n">
-        <f aca="false">B13-F13</f>
+      <c r="B21" s="32" t="n">
+        <f aca="false">B15-F15</f>
         <v>12</v>
       </c>
-      <c r="C19" s="24" t="n">
-        <f aca="false">F5</f>
+      <c r="C21" s="29" t="n">
+        <f aca="false">F7</f>
         <v>22</v>
       </c>
-      <c r="D19" s="25" t="n">
-        <f aca="false">C19-B19</f>
-        <v>10</v>
-      </c>
-      <c r="F19" s="26"/>
-      <c r="G19" s="27"/>
-      <c r="H19" s="26"/>
-      <c r="J19" s="28"/>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="21" t="s">
+      <c r="D21" s="32" t="n">
+        <f aca="false">C21-B21</f>
+        <v>10</v>
+      </c>
+      <c r="F21" s="14"/>
+      <c r="G21" s="33"/>
+      <c r="H21" s="14"/>
+      <c r="J21" s="34"/>
+    </row>
+    <row r="22" s="15" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="25" t="n">
-        <f aca="false">F14-F14</f>
-        <v>0</v>
-      </c>
-      <c r="C20" s="24" t="n">
-        <f aca="false">F6</f>
-        <v>0</v>
-      </c>
-      <c r="D20" s="24" t="n">
-        <f aca="false">C20-B20</f>
-        <v>0</v>
-      </c>
-      <c r="F20" s="27"/>
-      <c r="G20" s="27"/>
-      <c r="H20" s="27"/>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="B21" s="24" t="n">
-        <f aca="false">-SUM(B18:B20)</f>
-        <v>-18</v>
-      </c>
-      <c r="C21" s="24" t="n">
-        <f aca="false">F7</f>
+      <c r="B22" s="32" t="n">
+        <f aca="false">F16-F16</f>
+        <v>0</v>
+      </c>
+      <c r="C22" s="29" t="n">
+        <f aca="false">F8</f>
+        <v>0</v>
+      </c>
+      <c r="D22" s="30" t="n">
+        <f aca="false">C22-B22</f>
+        <v>0</v>
+      </c>
+      <c r="F22" s="33"/>
+      <c r="G22" s="33"/>
+      <c r="H22" s="33"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" s="30"/>
+      <c r="C23" s="29" t="n">
+        <f aca="false">F9</f>
         <v>-20</v>
       </c>
-      <c r="D21" s="22" t="n">
-        <f aca="false">C21-B21</f>
+      <c r="D23" s="27" t="n">
+        <f aca="false">SUM(B20:B22)+C23</f>
         <v>-2</v>
       </c>
-      <c r="E21" s="29" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0"/>
+      <c r="E23" s="31" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="28" s="15" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0"/>
+      <c r="B28" s="0"/>
+      <c r="C28" s="0"/>
+      <c r="D28" s="0"/>
+      <c r="E28" s="0"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -3013,22 +3626,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J30"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="true" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="true" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="14.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="8.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="9.81"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="0" width="8.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="8.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="8.77"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="7.81"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="8.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="8.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="8.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="7.98"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="12" style="0" width="11.52"/>
@@ -3092,448 +3705,168 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C4" s="14" t="n">
-        <v>8</v>
-      </c>
-      <c r="D4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" s="0" t="n">
-        <f aca="false">va</f>
-        <v>8</v>
-      </c>
-      <c r="G4" s="0" t="n">
-        <f aca="false">va</f>
-        <v>8</v>
-      </c>
-      <c r="H4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" s="0" t="n">
-        <f aca="false">va</f>
-        <v>8</v>
-      </c>
-    </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" s="14" t="n">
-        <v>22</v>
-      </c>
-      <c r="E5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" s="0" t="n">
-        <f aca="false">vb</f>
-        <v>22</v>
-      </c>
-      <c r="G5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" s="0" t="n">
-        <f aca="false">vb</f>
-        <v>22</v>
-      </c>
-      <c r="I5" s="0" t="n">
-        <f aca="false">vb</f>
-        <v>22</v>
+      <c r="A5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" s="14" t="n">
-        <v>16</v>
-      </c>
-      <c r="F6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" s="0" t="n">
-        <f aca="false">vc</f>
-        <v>16</v>
-      </c>
-      <c r="H6" s="0" t="n">
-        <f aca="false">vc</f>
-        <v>16</v>
-      </c>
-      <c r="I6" s="0" t="n">
-        <f aca="false">vc</f>
-        <v>16</v>
+      <c r="A6" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="9" t="n">
+        <f aca="false">a</f>
+        <v>10</v>
+      </c>
+      <c r="C6" s="9" t="n">
+        <f aca="false">a</f>
+        <v>10</v>
+      </c>
+      <c r="D6" s="9" t="n">
+        <f aca="false">ab-b</f>
+        <v>5</v>
+      </c>
+      <c r="E6" s="9" t="n">
+        <f aca="false">abg-bg</f>
+        <v>7</v>
+      </c>
+      <c r="F6" s="9" t="n">
+        <f aca="false">ag-g</f>
+        <v>0</v>
+      </c>
+      <c r="G6" s="9" t="n">
+        <f aca="false">abg-bg</f>
+        <v>7</v>
+      </c>
+      <c r="H6" s="11" t="n">
+        <f aca="false">SUM(B6:G6)/6</f>
+        <v>6.5</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="9" t="n">
+        <f aca="false">ab-a</f>
+        <v>10</v>
+      </c>
+      <c r="C7" s="9" t="n">
+        <f aca="false">abg-ag</f>
+        <v>12</v>
+      </c>
+      <c r="D7" s="9" t="n">
+        <f aca="false">b</f>
+        <v>15</v>
+      </c>
+      <c r="E7" s="9" t="n">
+        <f aca="false">b</f>
+        <v>15</v>
+      </c>
+      <c r="F7" s="9" t="n">
+        <f aca="false">abg-ag</f>
+        <v>12</v>
+      </c>
+      <c r="G7" s="9" t="n">
+        <f aca="false">bg-g</f>
+        <v>5</v>
+      </c>
+      <c r="H7" s="11" t="n">
+        <f aca="false">SUM(B7:G7)/6</f>
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="9" t="n">
+        <f aca="false">abg-ab</f>
+        <v>17</v>
+      </c>
+      <c r="C8" s="9" t="n">
+        <f aca="false">ag-a</f>
+        <v>15</v>
+      </c>
+      <c r="D8" s="9" t="n">
+        <f aca="false">abg-ab</f>
+        <v>17</v>
+      </c>
+      <c r="E8" s="9" t="n">
+        <f aca="false">bg-b</f>
+        <v>15</v>
+      </c>
+      <c r="F8" s="9" t="n">
+        <f aca="false">g</f>
         <v>25</v>
       </c>
-      <c r="B7" s="0" t="n">
-        <f aca="false">-B2</f>
-        <v>-0</v>
-      </c>
-      <c r="C7" s="0" t="n">
-        <f aca="false">-C2</f>
-        <v>-10</v>
-      </c>
-      <c r="D7" s="0" t="n">
-        <f aca="false">-D2</f>
-        <v>-15</v>
-      </c>
-      <c r="E7" s="0" t="n">
-        <f aca="false">-E2</f>
-        <v>-25</v>
-      </c>
-      <c r="F7" s="0" t="n">
-        <f aca="false">-F2</f>
-        <v>-20</v>
-      </c>
-      <c r="G7" s="0" t="n">
-        <f aca="false">-G2</f>
-        <v>-25</v>
-      </c>
-      <c r="H7" s="0" t="n">
-        <f aca="false">-H2</f>
-        <v>-30</v>
-      </c>
-      <c r="I7" s="0" t="n">
-        <f aca="false">-I2</f>
-        <v>-37</v>
+      <c r="G8" s="9" t="n">
+        <f aca="false">g</f>
+        <v>25</v>
+      </c>
+      <c r="H8" s="11" t="n">
+        <f aca="false">SUM(B8:G8)/6</f>
+        <v>19</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="30" t="s">
-        <v>35</v>
-      </c>
-      <c r="B9" s="0" t="n">
-        <f aca="false">C2</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="B10" s="0" t="n">
-        <f aca="false">D2-B9</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="30" t="s">
+      <c r="A9" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="13" t="n">
+        <f aca="false">SUM(B6:B8)</f>
         <v>37</v>
       </c>
-      <c r="B11" s="0" t="n">
-        <f aca="false">I2-F2</f>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" s="17" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="16" t="n">
-        <f aca="false">SUM(B4:B7)</f>
-        <v>0</v>
-      </c>
-      <c r="C13" s="16" t="n">
-        <f aca="false">SUM(C4:C7)</f>
-        <v>-2</v>
-      </c>
-      <c r="D13" s="16" t="n">
-        <f aca="false">SUM(D4:D7)</f>
-        <v>7</v>
-      </c>
-      <c r="E13" s="16" t="n">
-        <f aca="false">SUM(E4:E7)</f>
-        <v>-9</v>
-      </c>
-      <c r="F13" s="15" t="n">
-        <f aca="false">SUM(F4:F7)</f>
-        <v>10</v>
-      </c>
-      <c r="G13" s="16" t="n">
-        <f aca="false">SUM(G4:G7)</f>
-        <v>-1</v>
-      </c>
-      <c r="H13" s="16" t="n">
-        <f aca="false">SUM(H4:H7)</f>
-        <v>8</v>
-      </c>
-      <c r="I13" s="16" t="n">
-        <f aca="false">SUM(I4:I7)</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" s="18" t="n">
-        <f aca="false">B13=MAX($B$13:$I$13)</f>
-        <v>0</v>
-      </c>
-      <c r="C14" s="18" t="n">
-        <f aca="false">C13=MAX($B$13:$I$13)</f>
-        <v>0</v>
-      </c>
-      <c r="D14" s="18" t="n">
-        <f aca="false">D13=MAX($B$13:$I$13)</f>
-        <v>0</v>
-      </c>
-      <c r="E14" s="18" t="n">
-        <f aca="false">E13=MAX($B$13:$I$13)</f>
-        <v>0</v>
-      </c>
-      <c r="F14" s="18" t="n">
-        <f aca="false">F13=MAX($B$13:$I$13)</f>
-        <v>1</v>
-      </c>
-      <c r="G14" s="18" t="n">
-        <f aca="false">G13=MAX($B$13:$I$13)</f>
-        <v>0</v>
-      </c>
-      <c r="H14" s="18" t="n">
-        <f aca="false">H13=MAX($B$13:$I$13)</f>
-        <v>0</v>
-      </c>
-      <c r="I14" s="18" t="n">
-        <f aca="false">I13=MAX($B$13:$I$13)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16" s="19" t="n">
-        <f aca="false">B$13-B4</f>
-        <v>0</v>
-      </c>
-      <c r="C16" s="19" t="n">
-        <f aca="false">C$13-C4</f>
-        <v>-10</v>
-      </c>
-      <c r="D16" s="19" t="n">
-        <f aca="false">D$13-D4</f>
-        <v>7</v>
-      </c>
-      <c r="E16" s="19" t="n">
-        <f aca="false">E$13-E4</f>
-        <v>-9</v>
-      </c>
-      <c r="F16" s="19" t="n">
-        <f aca="false">F$13-F4</f>
-        <v>2</v>
-      </c>
-      <c r="G16" s="19" t="n">
-        <f aca="false">G$13-G4</f>
-        <v>-9</v>
-      </c>
-      <c r="H16" s="7" t="n">
-        <f aca="false">H$13-H4</f>
-        <v>8</v>
-      </c>
-      <c r="I16" s="19" t="n">
-        <f aca="false">I$13-I4</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17" s="7" t="n">
-        <f aca="false">B$13-B5</f>
-        <v>0</v>
-      </c>
-      <c r="C17" s="19" t="n">
-        <f aca="false">C$13-C5</f>
-        <v>-2</v>
-      </c>
-      <c r="D17" s="19" t="n">
-        <f aca="false">D$13-D5</f>
-        <v>-15</v>
-      </c>
-      <c r="E17" s="19" t="n">
-        <f aca="false">E$13-E5</f>
-        <v>-9</v>
-      </c>
-      <c r="F17" s="19" t="n">
-        <f aca="false">F$13-F5</f>
-        <v>-12</v>
-      </c>
-      <c r="G17" s="19" t="n">
-        <f aca="false">G$13-G5</f>
-        <v>-1</v>
-      </c>
-      <c r="H17" s="19" t="n">
-        <f aca="false">H$13-H5</f>
-        <v>-14</v>
-      </c>
-      <c r="I17" s="19" t="n">
-        <f aca="false">I$13-I5</f>
-        <v>-13</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B18" s="19" t="n">
-        <f aca="false">B$13-B6</f>
-        <v>0</v>
-      </c>
-      <c r="C18" s="19" t="n">
-        <f aca="false">C$13-C6</f>
-        <v>-2</v>
-      </c>
-      <c r="D18" s="19" t="n">
-        <f aca="false">D$13-D6</f>
-        <v>7</v>
-      </c>
-      <c r="E18" s="19" t="n">
-        <f aca="false">E$13-E6</f>
-        <v>-25</v>
-      </c>
-      <c r="F18" s="7" t="n">
-        <f aca="false">F$13-F6</f>
-        <v>10</v>
-      </c>
-      <c r="G18" s="19" t="n">
-        <f aca="false">G$13-G6</f>
-        <v>-17</v>
-      </c>
-      <c r="H18" s="19" t="n">
-        <f aca="false">H$13-H6</f>
-        <v>-8</v>
-      </c>
-      <c r="I18" s="19" t="n">
-        <f aca="false">I$13-I6</f>
-        <v>-7</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="20"/>
-      <c r="B21" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="C21" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="D21" s="22" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="B22" s="23" t="n">
-        <f aca="false">H16-F16</f>
-        <v>6</v>
-      </c>
-      <c r="C22" s="24" t="n">
-        <f aca="false">F4</f>
-        <v>8</v>
-      </c>
-      <c r="D22" s="24" t="n">
-        <f aca="false">C22-B22</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="B23" s="25" t="n">
-        <f aca="false">B17-F17</f>
-        <v>12</v>
-      </c>
-      <c r="C23" s="24" t="n">
-        <f aca="false">F5</f>
-        <v>22</v>
-      </c>
-      <c r="D23" s="25" t="n">
-        <f aca="false">C23-B23</f>
-        <v>10</v>
-      </c>
-      <c r="F23" s="26"/>
-      <c r="G23" s="27"/>
-      <c r="H23" s="26"/>
-      <c r="J23" s="28"/>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="B24" s="25" t="n">
-        <f aca="false">F18-F18</f>
-        <v>0</v>
-      </c>
-      <c r="C24" s="24" t="n">
-        <f aca="false">F6</f>
-        <v>0</v>
-      </c>
-      <c r="D24" s="24" t="n">
-        <f aca="false">C24-B24</f>
-        <v>0</v>
-      </c>
-      <c r="F24" s="27"/>
-      <c r="G24" s="27"/>
-      <c r="H24" s="27"/>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="B25" s="24" t="n">
-        <f aca="false">-SUM(B22:B24)</f>
-        <v>-18</v>
-      </c>
-      <c r="C25" s="24" t="n">
-        <f aca="false">F7</f>
-        <v>-20</v>
-      </c>
-      <c r="D25" s="22" t="n">
-        <f aca="false">C25-B25</f>
-        <v>-2</v>
-      </c>
-      <c r="E25" s="29" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0"/>
+      <c r="C9" s="13" t="n">
+        <f aca="false">SUM(C6:C8)</f>
+        <v>37</v>
+      </c>
+      <c r="D9" s="13" t="n">
+        <f aca="false">SUM(D6:D8)</f>
+        <v>37</v>
+      </c>
+      <c r="E9" s="13" t="n">
+        <f aca="false">SUM(E6:E8)</f>
+        <v>37</v>
+      </c>
+      <c r="F9" s="13" t="n">
+        <f aca="false">SUM(F6:F8)</f>
+        <v>37</v>
+      </c>
+      <c r="G9" s="13" t="n">
+        <f aca="false">SUM(G6:G8)</f>
+        <v>37</v>
+      </c>
+      <c r="H9" s="13" t="n">
+        <f aca="false">SUM(H6:H8)</f>
+        <v>37</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>

--- a/08-cost-sharing/code/shapley.xlsx
+++ b/08-cost-sharing/code/shapley.xlsx
@@ -2885,10 +2885,7 @@
         <f aca="false">B$11-B6</f>
         <v>0</v>
       </c>
-      <c r="C14" s="24" t="n">
-        <f aca="false">C$11-C6</f>
-        <v>0</v>
-      </c>
+      <c r="C14" s="24"/>
       <c r="D14" s="24" t="n">
         <f aca="false">D$11-D6</f>
         <v>7</v>
@@ -2897,22 +2894,13 @@
         <f aca="false">E$11-E6</f>
         <v>-9</v>
       </c>
-      <c r="F14" s="24" t="n">
-        <f aca="false">F$11-F6</f>
-        <v>12</v>
-      </c>
-      <c r="G14" s="24" t="n">
-        <f aca="false">G$11-G6</f>
-        <v>3.5</v>
-      </c>
-      <c r="H14" s="24" t="n">
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="7" t="n">
         <f aca="false">H$11-H6</f>
         <v>8</v>
       </c>
-      <c r="I14" s="7" t="n">
-        <f aca="false">I$11-I6</f>
-        <v>13.3333333333333</v>
-      </c>
+      <c r="I14" s="7"/>
     </row>
     <row r="15" s="15" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="6" t="s">
@@ -3006,7 +2994,7 @@
       </c>
       <c r="B20" s="28" t="n">
         <f aca="false">I14-F14</f>
-        <v>1.33333333333333</v>
+        <v>0</v>
       </c>
       <c r="C20" s="29" t="n">
         <f aca="false">F6</f>
@@ -3014,7 +3002,7 @@
       </c>
       <c r="D20" s="30" t="n">
         <f aca="false">C20-B20</f>
-        <v>-3.33333333333333</v>
+        <v>-2</v>
       </c>
       <c r="E20" s="0"/>
       <c r="G20" s="31" t="s">
@@ -3073,7 +3061,7 @@
       </c>
       <c r="D23" s="27" t="n">
         <f aca="false">SUM(B20:B22)+C23</f>
-        <v>4.33333333333333</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" s="15" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
